--- a/approaches/agora_data/our_ground_truth/Youtube GetVideos/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Youtube GetVideos/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Youtube GetVideos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782319F4-CB9F-41F0-846B-E2EA445576AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EC0C2-C6F9-4D40-86C8-21AF577A623F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1695" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10185" yWindow="2055" windowWidth="11625" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="318">
   <si>
     <t>operation</t>
   </si>
@@ -938,6 +938,42 @@
   </si>
   <si>
     <t>The ID of the currently active live chat attached to this video. This field is filled only if the video is a currently live broadcast that has live chat. Once the broadcast transitions to complete this field will be removed and the live chat closed down. For persistent broadcasts that live chat id will no longer be tied to this video but rather to the new video being displayed at the persistent page schema: {"type": "string"}</t>
+  </si>
+  <si>
+    <t>AccessPolicy</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>A list of region codes that identify countries where the default policy do not apply</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>A value that uniquely identifies a video vendor. Typically, the value is a four-letter vendor code</t>
+  </si>
+  <si>
+    <t>frameRateFps</t>
+  </si>
+  <si>
+    <t>The video stream's frame rate, in frames per second, schema: {"type": "number", "format": "double"}</t>
+  </si>
+  <si>
+    <t>Identifies what kind of resource this is. Value: the fixed string "youtube#video"</t>
+  </si>
+  <si>
+    <t>concurrentViewers</t>
+  </si>
+  <si>
+    <t>The number of viewers currently watching the broadcast. The property and its value will be present if the broadcast has current viewers and the broadcast owner has not hidden the viewcount for the video. Note that YouTube stops tracking the number of concurrent viewers for a broadcast when the broadcast ends. So, this property would not identify the number of viewers watching an archived video of a live broadcast that already ended, schema: {"type": "string", "format": "uint64"}</t>
+  </si>
+  <si>
+    <t>embedHtml</t>
+  </si>
+  <si>
+    <t>An &lt;iframe&gt; tag that embeds a player that will play the video</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD1048576"/>
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,6 +3810,104 @@
         <v>305</v>
       </c>
     </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" t="s">
+        <v>307</v>
+      </c>
+      <c r="D143" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" t="s">
+        <v>309</v>
+      </c>
+      <c r="D144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" t="s">
+        <v>284</v>
+      </c>
+      <c r="D146" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" t="s">
+        <v>314</v>
+      </c>
+      <c r="D147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>184</v>
+      </c>
+      <c r="C148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
